--- a/static/user_workout_DB/Users.xlsx
+++ b/static/user_workout_DB/Users.xlsx
@@ -1,101 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishfaqmalik/Desktop/IS 3240/IS-3240-Web-Application/static/user_workout_DB/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214E854-932F-6B44-800F-5153EE69FC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="workout_data_ish" sheetId="1" r:id="rId1"/>
-    <sheet name="workout_data_johndoe20" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="workout_data_ish" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="workout_data_johndoe20" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="12">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Workout(Y/N)</t>
-  </si>
-  <si>
-    <t>Exercise_type</t>
-  </si>
-  <si>
-    <t>weight_record</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Chest</t>
-  </si>
-  <si>
-    <t>Arms</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Legs</t>
-  </si>
-  <si>
-    <t>Core</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,33 +90,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,283 +473,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Workout(Y/N)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exercise_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>weight_record</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45618</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>74</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45619</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>74.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45620</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>74.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45621</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>73.900000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45622</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Legs</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>74.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45623</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>74.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45624</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>74.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45625</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45626</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>75.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45628</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>76.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45629</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>76.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>45630</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>76.8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45631</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>76.599999999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45632</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>77.099999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45633</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>77.099999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45634</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>77.099999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Legs</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45635</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>77.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45636</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>77.5</v>
       </c>
     </row>
@@ -733,278 +837,358 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Workout(Y/N)</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Exercise_type</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>weight_record</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45618</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>74</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45619</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>74.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45620</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>74.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45621</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>73.900000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45622</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Legs</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>74.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45623</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>74.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45624</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>74.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45625</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45626</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>75.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45628</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>76.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45629</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>76.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>45630</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>76.8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45631</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>76.599999999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45632</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>77.099999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45633</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>77.099999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45634</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>77.099999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Legs</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45635</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>77.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45636</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>77.5</v>
       </c>
     </row>

--- a/static/user_workout_DB/Users.xlsx
+++ b/static/user_workout_DB/Users.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="workout_data_ish" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="workout_data_johndoe20" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="workout_data_ish" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="workout_data_johndoe20" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="workout_data_tvisha" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1195,4 +1197,389 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Workout(Y/N)</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Exercise_type</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>weight_record</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>74</v>
+      </c>
+      <c r="E2" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>45619</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>45620</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Legs</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>76</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>76</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>45633</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Legs</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/static/user_workout_DB/Users.xlsx
+++ b/static/user_workout_DB/Users.xlsx
@@ -9,6 +9,7 @@
     <sheet name="workout_data_ish" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="workout_data_johndoe20" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="workout_data_tvisha" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="workout_data_mahad123" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1278,6 +1279,367 @@
       <c r="D3" t="n">
         <v>74.2</v>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>45620</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Legs</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>45633</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Legs</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>77.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Workout(Y/N)</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Exercise_type</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>weight_record</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>74</v>
+      </c>
+      <c r="E2" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>45619</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>74.2</v>
+      </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
